--- a/BBallFeatures.xlsx
+++ b/BBallFeatures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>Offense</t>
   </si>
@@ -195,19 +195,162 @@
   </si>
   <si>
     <t>Drive Passes/Drives</t>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>DEF_RIM_FGA</t>
+  </si>
+  <si>
+    <t>OREB_CHANCES</t>
+  </si>
+  <si>
+    <t>AVG_OREB_DIST</t>
+  </si>
+  <si>
+    <t>DREB_CHANCES</t>
+  </si>
+  <si>
+    <t>AVG_DREB_DIST</t>
+  </si>
+  <si>
+    <t>PULL_UP_FG3A</t>
+  </si>
+  <si>
+    <t>AVG_SEC_PER_TOUCH</t>
+  </si>
+  <si>
+    <t>AVG_DRIB_PER_TOUCH</t>
+  </si>
+  <si>
+    <t>ELBOW_TOUCHES</t>
+  </si>
+  <si>
+    <t>POST_TOUCHES</t>
+  </si>
+  <si>
+    <t>PAINT_TOUCHES</t>
+  </si>
+  <si>
+    <t>TOUCHES</t>
+  </si>
+  <si>
+    <t>PASSES_MADE</t>
+  </si>
+  <si>
+    <t>PASSES_RECEIVED</t>
+  </si>
+  <si>
+    <t>CATCH_SHOOT_FG3A</t>
+  </si>
+  <si>
+    <t>DRIVES</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>PlayerIDSID</t>
+  </si>
+  <si>
+    <t>PlayerFirstName</t>
+  </si>
+  <si>
+    <t>PlayerLastName</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>OffScreen_dPoss</t>
+  </si>
+  <si>
+    <t>Handoff_dPoss</t>
+  </si>
+  <si>
+    <t>Spotup_dPoss</t>
+  </si>
+  <si>
+    <t>Postup_dPoss</t>
+  </si>
+  <si>
+    <t>PRRollMan_dPoss</t>
+  </si>
+  <si>
+    <t>PRBallHandler_dPoss</t>
+  </si>
+  <si>
+    <t>Isolation_dPoss</t>
+  </si>
+  <si>
+    <t>Misc_oPoss</t>
+  </si>
+  <si>
+    <t>OffRebound_oPoss</t>
+  </si>
+  <si>
+    <t>OffScreen_oPoss</t>
+  </si>
+  <si>
+    <t>Cut_oPoss</t>
+  </si>
+  <si>
+    <t>Handoff_oPoss</t>
+  </si>
+  <si>
+    <t>Spotup_oPoss</t>
+  </si>
+  <si>
+    <t>Postup_oPoss</t>
+  </si>
+  <si>
+    <t>PRRollMan_oPoss</t>
+  </si>
+  <si>
+    <t>PRBallHandler_oPoss</t>
+  </si>
+  <si>
+    <t>Isolation_oPoss</t>
+  </si>
+  <si>
+    <t>Transition_oPoss</t>
+  </si>
+  <si>
+    <t>CATCH_SHOOT_FG2A</t>
+  </si>
+  <si>
+    <t>PULL_UP_FG2A</t>
+  </si>
+  <si>
+    <t>DRIVE_PASS_PCT</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,9 +379,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,22 +665,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +700,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -573,8 +723,11 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -593,8 +746,11 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -613,8 +769,11 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,8 +786,11 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -641,8 +803,11 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -655,8 +820,11 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -669,8 +837,11 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -683,8 +854,11 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -697,8 +871,11 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -711,160 +888,301 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>